--- a/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>LFER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43799</v>
+      </c>
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,43 +747,49 @@
         <v>8</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1000</v>
       </c>
       <c r="M8" s="3">
         <v>700</v>
       </c>
       <c r="N8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O8" s="3">
+        <v>700</v>
+      </c>
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,43 +797,49 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>500</v>
-      </c>
-      <c r="J9" s="3">
-        <v>400</v>
       </c>
       <c r="K9" s="3">
         <v>500</v>
       </c>
       <c r="L9" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M9" s="3">
         <v>500</v>
       </c>
       <c r="N9" s="3">
+        <v>800</v>
+      </c>
+      <c r="O9" s="3">
+        <v>500</v>
+      </c>
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,25 +847,25 @@
         <v>8</v>
       </c>
       <c r="E10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
@@ -855,7 +874,7 @@
         <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
@@ -863,8 +882,14 @@
       <c r="P10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,37 +1002,43 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1013,16 +1052,22 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1034,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1123,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1200</v>
       </c>
       <c r="M17" s="3">
         <v>900</v>
       </c>
       <c r="N17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O17" s="3">
+        <v>900</v>
+      </c>
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,25 +1184,25 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>-4800</v>
+        <v>-1200</v>
       </c>
       <c r="F18" s="3">
         <v>-700</v>
       </c>
       <c r="G18" s="3">
-        <v>-900</v>
+        <v>-4800</v>
       </c>
       <c r="H18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
@@ -1152,16 +1211,22 @@
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,43 +1254,49 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1304,49 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-7100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>-200</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1293,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
@@ -1308,83 +1387,95 @@
         <v>300</v>
       </c>
       <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-7200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-400</v>
       </c>
       <c r="L23" s="3">
         <v>-500</v>
       </c>
       <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-7200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
       </c>
       <c r="L26" s="3">
         <v>-500</v>
       </c>
       <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-1000</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-7200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1900</v>
       </c>
       <c r="H27" s="3">
         <v>-1100</v>
       </c>
       <c r="I27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-500</v>
       </c>
       <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,37 +1689,43 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G29" s="3">
         <v>-900</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>-200</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1854,99 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
         <v>2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>300</v>
+      </c>
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-8100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-500</v>
       </c>
       <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-8100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-500</v>
       </c>
       <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43799</v>
+      </c>
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,25 +2149,25 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
@@ -2006,13 +2179,19 @@
         <v>200</v>
       </c>
       <c r="O41" s="3">
+        <v>200</v>
+      </c>
+      <c r="P41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,84 +2234,96 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>200</v>
+      </c>
+      <c r="R43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
-      </c>
-      <c r="F44" s="3">
-        <v>300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
       </c>
       <c r="I44" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J44" s="3">
         <v>300</v>
       </c>
       <c r="K44" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L44" s="3">
         <v>300</v>
       </c>
       <c r="M44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N44" s="3">
         <v>300</v>
@@ -2143,43 +2334,49 @@
       <c r="P44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>300</v>
+      </c>
+      <c r="R44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2187,52 +2384,64 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1000</v>
       </c>
       <c r="I46" s="3">
         <v>800</v>
       </c>
       <c r="J46" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K46" s="3">
         <v>800</v>
       </c>
       <c r="L46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N46" s="3">
         <v>700</v>
       </c>
       <c r="O46" s="3">
+        <v>700</v>
+      </c>
+      <c r="P46" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2242,11 +2451,11 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -2254,11 +2463,11 @@
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -2275,37 +2484,43 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>100</v>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
       </c>
       <c r="I48" s="3">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>100</v>
+      </c>
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
-        <v>100</v>
-      </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2319,52 +2534,64 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>200</v>
+      </c>
+      <c r="F49" s="3">
         <v>600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>500</v>
       </c>
       <c r="K49" s="3">
         <v>500</v>
       </c>
       <c r="L49" s="3">
+        <v>500</v>
+      </c>
+      <c r="M49" s="3">
+        <v>500</v>
+      </c>
+      <c r="N49" s="3">
         <v>300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>300</v>
-      </c>
-      <c r="N49" s="3">
-        <v>400</v>
-      </c>
-      <c r="O49" s="3">
-        <v>400</v>
       </c>
       <c r="P49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>400</v>
+      </c>
+      <c r="R49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,13 +2684,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2472,31 +2711,37 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>1400</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1100</v>
       </c>
       <c r="N54" s="3">
         <v>1100</v>
       </c>
       <c r="O54" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="P54" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R54" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,131 +2878,145 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -2751,52 +3024,64 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F60" s="3">
         <v>4400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2813,63 +3098,69 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F66" s="3">
         <v>4400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2100</v>
       </c>
       <c r="L66" s="3">
         <v>2300</v>
       </c>
       <c r="M66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-15800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-14900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-1200</v>
       </c>
       <c r="M76" s="3">
         <v>-700</v>
       </c>
       <c r="N76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43799</v>
+      </c>
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-8100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-500</v>
       </c>
       <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3637,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,43 +4334,49 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>200</v>
+      </c>
+      <c r="O89" s="3">
+        <v>200</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3996,10 +4437,16 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,38 +4539,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4128,10 +4587,16 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,43 +4824,49 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>300</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-100</v>
-      </c>
       <c r="M100" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>-100</v>
       </c>
       <c r="O100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,13 +4909,19 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4430,30 +4933,36 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>LFER</t>
   </si>
@@ -756,7 +756,7 @@
         <v>1000</v>
       </c>
       <c r="H8" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -806,7 +806,7 @@
         <v>900</v>
       </c>
       <c r="H9" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
@@ -1025,8 +1025,8 @@
       <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1063,8 +1063,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1130,8 +1130,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>1200</v>
@@ -1143,7 +1143,7 @@
         <v>5800</v>
       </c>
       <c r="H17" s="3">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
@@ -1193,7 +1193,7 @@
         <v>-4800</v>
       </c>
       <c r="H18" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
@@ -1263,7 +1263,7 @@
         <v>-2300</v>
       </c>
       <c r="H20" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="I20" s="3">
         <v>-300</v>
@@ -1313,7 +1313,7 @@
         <v>-7100</v>
       </c>
       <c r="H21" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I21" s="3">
         <v>-600</v>
@@ -1413,7 +1413,7 @@
         <v>-7200</v>
       </c>
       <c r="H23" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I23" s="3">
         <v>-600</v>
@@ -1550,8 +1550,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-1200</v>
@@ -1563,7 +1563,7 @@
         <v>-7200</v>
       </c>
       <c r="H26" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I26" s="3">
         <v>-600</v>
@@ -1600,8 +1600,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-1200</v>
@@ -1613,7 +1613,7 @@
         <v>-7200</v>
       </c>
       <c r="H27" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I27" s="3">
         <v>-600</v>
@@ -1701,7 +1701,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1712,8 +1712,8 @@
       <c r="G29" s="3">
         <v>-900</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>-100</v>
       </c>
       <c r="I29" s="3">
         <v>-100</v>
@@ -1863,7 +1863,7 @@
         <v>2300</v>
       </c>
       <c r="H32" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I32" s="3">
         <v>300</v>
@@ -1900,8 +1900,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>600</v>
       </c>
       <c r="E33" s="3">
         <v>-1200</v>
@@ -2000,8 +2000,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>600</v>
       </c>
       <c r="E35" s="3">
         <v>-1200</v>
@@ -3960,8 +3960,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>600</v>
       </c>
       <c r="E81" s="3">
         <v>-1200</v>

--- a/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>LFER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,89 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -762,34 +770,40 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1000</v>
       </c>
       <c r="O8" s="3">
         <v>700</v>
       </c>
       <c r="P8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>700</v>
+      </c>
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,49 +811,55 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>900</v>
-      </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>500</v>
       </c>
       <c r="N9" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="O9" s="3">
         <v>500</v>
       </c>
       <c r="P9" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>500</v>
+      </c>
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,31 +867,31 @@
         <v>8</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
@@ -880,7 +900,7 @@
         <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
@@ -888,8 +908,14 @@
       <c r="R10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>200</v>
+      </c>
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,43 +1042,49 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+        <v>700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1058,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1073,20 +1119,20 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1177,66 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
-        <v>5800</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1200</v>
       </c>
       <c r="O17" s="3">
         <v>900</v>
       </c>
       <c r="P17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>900</v>
+      </c>
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,31 +1244,31 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
@@ -1217,16 +1277,22 @@
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,49 +1322,55 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1378,55 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-100</v>
       </c>
       <c r="P21" s="3">
         <v>-200</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1378,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
@@ -1393,60 +1473,72 @@
         <v>300</v>
       </c>
       <c r="R22" s="3">
+        <v>300</v>
+      </c>
+      <c r="S22" s="3">
+        <v>300</v>
+      </c>
+      <c r="T22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-400</v>
       </c>
       <c r="N23" s="3">
         <v>-500</v>
       </c>
       <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1459,29 +1551,29 @@
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1495,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
       </c>
       <c r="N26" s="3">
         <v>-500</v>
       </c>
       <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-400</v>
       </c>
       <c r="N27" s="3">
         <v>-500</v>
       </c>
       <c r="O27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,43 +1811,49 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>900</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-100</v>
-      </c>
       <c r="G29" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>-100</v>
       </c>
       <c r="I29" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,99 +1994,111 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-8100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-400</v>
       </c>
       <c r="N33" s="3">
         <v>-500</v>
       </c>
       <c r="O33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-8100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-400</v>
       </c>
       <c r="N35" s="3">
         <v>-500</v>
       </c>
       <c r="O35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2312,10 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2155,25 +2329,25 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
@@ -2185,13 +2359,19 @@
         <v>200</v>
       </c>
       <c r="Q41" s="3">
+        <v>200</v>
+      </c>
+      <c r="R41" s="3">
+        <v>200</v>
+      </c>
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2420,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2252,84 +2438,90 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
       </c>
       <c r="M43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
+        <v>200</v>
+      </c>
+      <c r="T43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
       <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>300</v>
       </c>
       <c r="J44" s="3">
         <v>300</v>
       </c>
       <c r="K44" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L44" s="3">
         <v>300</v>
       </c>
       <c r="M44" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N44" s="3">
         <v>300</v>
       </c>
       <c r="O44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P44" s="3">
         <v>300</v>
@@ -2340,13 +2532,19 @@
       <c r="R44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>300</v>
+      </c>
+      <c r="T44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2355,34 +2553,34 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2390,8 +2588,14 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2399,49 +2603,55 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>800</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1000</v>
       </c>
       <c r="K46" s="3">
         <v>800</v>
       </c>
       <c r="L46" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M46" s="3">
         <v>800</v>
       </c>
       <c r="N46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P46" s="3">
         <v>700</v>
       </c>
       <c r="Q46" s="3">
+        <v>700</v>
+      </c>
+      <c r="R46" s="3">
+        <v>700</v>
+      </c>
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2457,11 +2667,11 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2469,11 +2679,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -2490,8 +2700,14 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2504,29 +2720,29 @@
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>100</v>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
       </c>
       <c r="K48" s="3">
+        <v>100</v>
+      </c>
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>100</v>
-      </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2540,58 +2756,70 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>500</v>
-      </c>
-      <c r="L49" s="3">
-        <v>500</v>
       </c>
       <c r="M49" s="3">
         <v>500</v>
       </c>
       <c r="N49" s="3">
+        <v>500</v>
+      </c>
+      <c r="O49" s="3">
+        <v>500</v>
+      </c>
+      <c r="P49" s="3">
         <v>300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>300</v>
-      </c>
-      <c r="P49" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>400</v>
       </c>
       <c r="R49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>400</v>
+      </c>
+      <c r="T49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,13 +2924,19 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2717,31 +2957,37 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>1400</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1100</v>
       </c>
       <c r="P54" s="3">
         <v>1100</v>
       </c>
       <c r="Q54" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="R54" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T54" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3140,66 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2939,90 +3207,96 @@
         <v>2200</v>
       </c>
       <c r="E58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3030,58 +3304,70 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F60" s="3">
         <v>3900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3104,69 +3390,75 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3180,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F66" s="3">
         <v>3900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2100</v>
       </c>
       <c r="N66" s="3">
         <v>2300</v>
       </c>
       <c r="O66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-16400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-17000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-15800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-14900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3600</v>
+        <v>-4500</v>
       </c>
       <c r="E76" s="3">
         <v>-4300</v>
       </c>
       <c r="F76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H76" s="3">
         <v>-3500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1200</v>
       </c>
       <c r="O76" s="3">
         <v>-700</v>
       </c>
       <c r="P76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-8100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-400</v>
       </c>
       <c r="N81" s="3">
         <v>-500</v>
       </c>
       <c r="O81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4040,14 +4438,14 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4753,14 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4334,49 +4768,55 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4443,10 +4885,16 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4554,35 +5014,35 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -4593,10 +5053,16 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5301,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-100</v>
-      </c>
       <c r="O100" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
       </c>
       <c r="Q100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5413,14 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4927,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -4936,33 +5440,39 @@
         <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>LFER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,48 +770,51 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>600</v>
       </c>
       <c r="O8" s="3">
+        <v>600</v>
+      </c>
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
-      </c>
-      <c r="S8" s="3">
-        <v>600</v>
       </c>
       <c r="T8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -817,49 +823,52 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
-      </c>
-      <c r="R9" s="3">
-        <v>400</v>
       </c>
       <c r="S9" s="3">
         <v>400</v>
       </c>
       <c r="T9" s="3">
+        <v>400</v>
+      </c>
+      <c r="U9" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -873,28 +882,28 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-200</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>-100</v>
       </c>
       <c r="K10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>200</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
@@ -906,16 +915,19 @@
         <v>200</v>
       </c>
       <c r="R10" s="3">
+        <v>200</v>
+      </c>
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,37 +1064,40 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1086,8 +1105,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1125,17 +1147,17 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1204,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
       </c>
       <c r="M17" s="3">
+        <v>400</v>
+      </c>
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1200</v>
       </c>
       <c r="T17" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,34 +1273,34 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
@@ -1283,16 +1312,19 @@
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-600</v>
       </c>
       <c r="T18" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,55 +1355,58 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1414,58 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-200</v>
       </c>
       <c r="P21" s="3">
         <v>-200</v>
       </c>
       <c r="Q21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-600</v>
       </c>
       <c r="T21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1464,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>300</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
@@ -1479,66 +1518,72 @@
         <v>300</v>
       </c>
       <c r="T22" s="3">
+        <v>300</v>
+      </c>
+      <c r="U22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-500</v>
       </c>
       <c r="Q23" s="3">
         <v>-500</v>
       </c>
       <c r="R23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1557,11 +1602,11 @@
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
@@ -1569,14 +1614,14 @@
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-500</v>
       </c>
       <c r="Q26" s="3">
         <v>-500</v>
       </c>
       <c r="R26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-500</v>
       </c>
       <c r="Q27" s="3">
         <v>-500</v>
       </c>
       <c r="R27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1829,34 +1889,34 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>900</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-1600</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-100</v>
       </c>
       <c r="K29" s="3">
         <v>-100</v>
       </c>
       <c r="L29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,111 +2063,117 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-500</v>
       </c>
       <c r="Q33" s="3">
         <v>-500</v>
       </c>
       <c r="R33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-500</v>
       </c>
       <c r="Q35" s="3">
         <v>-500</v>
       </c>
       <c r="R35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2335,22 +2421,22 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
@@ -2365,13 +2451,16 @@
         <v>200</v>
       </c>
       <c r="S41" s="3">
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,13 +2515,16 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2444,28 +2536,28 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
@@ -2474,24 +2566,27 @@
         <v>200</v>
       </c>
       <c r="R43" s="3">
+        <v>200</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2500,13 +2595,13 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
@@ -2515,16 +2610,16 @@
         <v>300</v>
       </c>
       <c r="M44" s="3">
+        <v>300</v>
+      </c>
+      <c r="N44" s="3">
         <v>600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>400</v>
-      </c>
-      <c r="P44" s="3">
-        <v>300</v>
       </c>
       <c r="Q44" s="3">
         <v>300</v>
@@ -2538,16 +2633,19 @@
       <c r="T44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2559,31 +2657,31 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2609,25 +2710,25 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>800</v>
       </c>
       <c r="N46" s="3">
         <v>800</v>
@@ -2636,7 +2737,7 @@
         <v>800</v>
       </c>
       <c r="P46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q46" s="3">
         <v>700</v>
@@ -2645,13 +2746,16 @@
         <v>700</v>
       </c>
       <c r="S46" s="3">
+        <v>700</v>
+      </c>
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2673,8 +2777,8 @@
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2685,8 +2789,8 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2726,11 +2833,11 @@
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2739,13 +2846,13 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2762,40 +2869,43 @@
       <c r="T48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
       </c>
       <c r="H49" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="I49" s="3">
         <v>600</v>
       </c>
       <c r="J49" s="3">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="K49" s="3">
         <v>2800</v>
       </c>
       <c r="L49" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M49" s="3">
         <v>2900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>500</v>
       </c>
       <c r="N49" s="3">
         <v>500</v>
@@ -2804,13 +2914,13 @@
         <v>500</v>
       </c>
       <c r="P49" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q49" s="3">
         <v>300</v>
       </c>
       <c r="R49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S49" s="3">
         <v>400</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,16 +3046,19 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2963,11 +3082,11 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>1400</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
@@ -2977,8 +3096,8 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3054,37 +3179,37 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1400</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1100</v>
       </c>
       <c r="Q54" s="3">
         <v>1100</v>
@@ -3093,13 +3218,16 @@
         <v>1100</v>
       </c>
       <c r="S54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T54" s="3">
         <v>1300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,155 +3281,161 @@
         <v>2100</v>
       </c>
       <c r="E57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1400</v>
       </c>
       <c r="H57" s="3">
         <v>1400</v>
       </c>
       <c r="I57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J57" s="3">
         <v>2000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1800</v>
       </c>
       <c r="K57" s="3">
         <v>1800</v>
       </c>
       <c r="L57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1300</v>
       </c>
       <c r="O57" s="3">
         <v>1300</v>
       </c>
       <c r="P57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
         <v>2200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1700</v>
       </c>
       <c r="I58" s="3">
         <v>1700</v>
       </c>
       <c r="J58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1500</v>
       </c>
       <c r="L58" s="3">
         <v>1500</v>
       </c>
       <c r="M58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N58" s="3">
         <v>1700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>700</v>
       </c>
       <c r="O58" s="3">
         <v>700</v>
       </c>
       <c r="P58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
       </c>
       <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3310,64 +3446,70 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>3200</v>
       </c>
       <c r="L60" s="3">
         <v>3200</v>
       </c>
       <c r="M60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3396,20 +3538,20 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
       </c>
       <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3417,13 +3559,16 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>300</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3448,20 +3593,20 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3300</v>
       </c>
       <c r="L66" s="3">
         <v>3300</v>
       </c>
       <c r="M66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-1000</v>
       </c>
       <c r="N76" s="3">
         <v>-1000</v>
       </c>
       <c r="O76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-500</v>
       </c>
       <c r="Q81" s="3">
         <v>-500</v>
       </c>
       <c r="R81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4444,11 +4642,11 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,13 +4972,16 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -4774,49 +4990,52 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>200</v>
       </c>
       <c r="R89" s="3">
+        <v>200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4891,10 +5111,13 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,13 +5231,16 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5020,17 +5249,17 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5038,14 +5267,14 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5059,10 +5288,13 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5437,42 +5688,45 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>LFER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,51 +777,54 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>600</v>
       </c>
       <c r="P8" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
-      </c>
-      <c r="T8" s="3">
-        <v>600</v>
       </c>
       <c r="U8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -826,57 +833,60 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
-      </c>
-      <c r="S9" s="3">
-        <v>400</v>
       </c>
       <c r="T9" s="3">
         <v>400</v>
       </c>
       <c r="U9" s="3">
+        <v>400</v>
+      </c>
+      <c r="V9" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -885,28 +895,28 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-200</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>-100</v>
       </c>
       <c r="L10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
@@ -918,16 +928,19 @@
         <v>200</v>
       </c>
       <c r="S10" s="3">
+        <v>200</v>
+      </c>
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,40 +1084,43 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1108,8 +1128,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1150,17 +1173,17 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,67 +1231,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
       </c>
       <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1200</v>
       </c>
       <c r="U17" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,37 +1303,37 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
@@ -1315,16 +1345,19 @@
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-600</v>
       </c>
       <c r="U18" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,58 +1389,61 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,58 +1451,61 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-200</v>
       </c>
       <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-600</v>
       </c>
       <c r="U21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1506,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
@@ -1521,69 +1561,75 @@
         <v>300</v>
       </c>
       <c r="U22" s="3">
+        <v>300</v>
+      </c>
+      <c r="V22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-500</v>
       </c>
       <c r="R23" s="3">
         <v>-500</v>
       </c>
       <c r="S23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1605,11 +1651,11 @@
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
@@ -1617,14 +1663,14 @@
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-500</v>
       </c>
       <c r="R26" s="3">
         <v>-500</v>
       </c>
       <c r="S26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-500</v>
       </c>
       <c r="R27" s="3">
         <v>-500</v>
       </c>
       <c r="S27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1892,34 +1953,34 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>900</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1600</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-100</v>
       </c>
       <c r="L29" s="3">
         <v>-100</v>
       </c>
       <c r="M29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,117 +2133,123 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-500</v>
       </c>
       <c r="R33" s="3">
         <v>-500</v>
       </c>
       <c r="S33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-500</v>
       </c>
       <c r="R35" s="3">
         <v>-500</v>
       </c>
       <c r="S35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,13 +2486,14 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2424,22 +2511,22 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>200</v>
@@ -2454,13 +2541,16 @@
         <v>200</v>
       </c>
       <c r="T41" s="3">
+        <v>200</v>
+      </c>
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,16 +2608,19 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2539,28 +2632,28 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
@@ -2569,16 +2662,19 @@
         <v>200</v>
       </c>
       <c r="S43" s="3">
+        <v>200</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2588,8 +2684,8 @@
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2598,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>300</v>
@@ -2613,16 +2709,16 @@
         <v>300</v>
       </c>
       <c r="N44" s="3">
+        <v>300</v>
+      </c>
+      <c r="O44" s="3">
         <v>600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>400</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>300</v>
       </c>
       <c r="R44" s="3">
         <v>300</v>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2647,8 +2746,8 @@
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2660,31 +2759,31 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2695,13 +2794,16 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2713,25 +2815,25 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
-      </c>
-      <c r="N46" s="3">
-        <v>800</v>
       </c>
       <c r="O46" s="3">
         <v>800</v>
@@ -2740,7 +2842,7 @@
         <v>800</v>
       </c>
       <c r="Q46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R46" s="3">
         <v>700</v>
@@ -2749,39 +2851,42 @@
         <v>700</v>
       </c>
       <c r="T46" s="3">
+        <v>700</v>
+      </c>
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2792,8 +2897,8 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2836,11 +2944,11 @@
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2849,13 +2957,13 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2883,32 +2994,32 @@
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
         <v>600</v>
       </c>
       <c r="K49" s="3">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="L49" s="3">
         <v>2800</v>
       </c>
       <c r="M49" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N49" s="3">
         <v>2900</v>
-      </c>
-      <c r="N49" s="3">
-        <v>500</v>
       </c>
       <c r="O49" s="3">
         <v>500</v>
@@ -2917,13 +3028,13 @@
         <v>500</v>
       </c>
       <c r="Q49" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="R49" s="3">
         <v>300</v>
       </c>
       <c r="S49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T49" s="3">
         <v>400</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3060,8 +3180,8 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3085,11 +3205,11 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>1400</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
@@ -3099,8 +3219,8 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,13 +3290,16 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3182,37 +3308,37 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1100</v>
       </c>
       <c r="R54" s="3">
         <v>1100</v>
@@ -3221,13 +3347,16 @@
         <v>1100</v>
       </c>
       <c r="T54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U54" s="3">
         <v>1300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3284,55 +3415,58 @@
         <v>2100</v>
       </c>
       <c r="F57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1400</v>
       </c>
       <c r="I57" s="3">
         <v>1400</v>
       </c>
       <c r="J57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1800</v>
       </c>
       <c r="L57" s="3">
         <v>1800</v>
       </c>
       <c r="M57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1300</v>
       </c>
       <c r="P57" s="3">
         <v>1300</v>
       </c>
       <c r="Q57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
-      </c>
-      <c r="T57" s="3">
-        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3340,105 +3474,108 @@
         <v>2400</v>
       </c>
       <c r="E58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F58" s="3">
         <v>2200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1700</v>
       </c>
       <c r="J58" s="3">
         <v>1700</v>
       </c>
       <c r="K58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L58" s="3">
         <v>1300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1500</v>
       </c>
       <c r="M58" s="3">
         <v>1500</v>
       </c>
       <c r="N58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O58" s="3">
         <v>1700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>700</v>
       </c>
       <c r="P58" s="3">
         <v>700</v>
       </c>
       <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+      <c r="R58" s="3">
         <v>1200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
       </c>
       <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3449,67 +3586,73 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
         <v>4800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>3200</v>
       </c>
       <c r="M60" s="3">
         <v>3200</v>
       </c>
       <c r="N60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O60" s="3">
         <v>3600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3541,20 +3684,20 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
       </c>
       <c r="O61" s="3">
+        <v>100</v>
+      </c>
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3562,13 +3705,16 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>300</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3596,20 +3742,20 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>3300</v>
       </c>
       <c r="M66" s="3">
         <v>3300</v>
       </c>
       <c r="N66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O66" s="3">
         <v>3700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1000</v>
       </c>
       <c r="O76" s="3">
         <v>-1000</v>
       </c>
       <c r="P76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-500</v>
       </c>
       <c r="R81" s="3">
         <v>-500</v>
       </c>
       <c r="S81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4645,11 +4844,11 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,16 +5189,19 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -4993,49 +5210,52 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>200</v>
       </c>
       <c r="S89" s="3">
+        <v>200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5114,10 +5335,13 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,16 +5461,19 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5252,17 +5482,17 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5270,14 +5500,14 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5291,10 +5521,13 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>200</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,13 +5919,16 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5691,42 +5943,45 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>LFER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,104 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -780,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -789,34 +797,40 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>700</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1000</v>
       </c>
       <c r="S8" s="3">
         <v>700</v>
       </c>
       <c r="T8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U8" s="3">
+        <v>700</v>
+      </c>
+      <c r="V8" s="3">
         <v>500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -826,17 +840,17 @@
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -845,40 +859,46 @@
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>500</v>
       </c>
       <c r="R9" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="S9" s="3">
         <v>500</v>
       </c>
       <c r="T9" s="3">
+        <v>800</v>
+      </c>
+      <c r="U9" s="3">
+        <v>500</v>
+      </c>
+      <c r="V9" s="3">
         <v>400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -888,41 +908,41 @@
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-200</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
@@ -931,7 +951,7 @@
         <v>200</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
@@ -939,8 +959,14 @@
       <c r="V10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>200</v>
+      </c>
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,55 +1121,61 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>200</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1149,16 +1189,22 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1176,20 +1222,20 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1284,78 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
-        <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>700</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>900</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1200</v>
       </c>
       <c r="S17" s="3">
         <v>900</v>
       </c>
       <c r="T17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U17" s="3">
+        <v>900</v>
+      </c>
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,43 +1363,43 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
@@ -1348,16 +1408,22 @@
         <v>-200</v>
       </c>
       <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,61 +1457,67 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,61 +1525,67 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-800</v>
-      </c>
       <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-6300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-100</v>
       </c>
       <c r="T21" s="3">
         <v>-200</v>
       </c>
       <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1549,13 +1629,13 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>300</v>
-      </c>
-      <c r="S22" s="3">
-        <v>300</v>
       </c>
       <c r="T22" s="3">
         <v>300</v>
@@ -1564,10 +1644,16 @@
         <v>300</v>
       </c>
       <c r="V22" s="3">
+        <v>300</v>
+      </c>
+      <c r="W22" s="3">
+        <v>300</v>
+      </c>
+      <c r="X22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,108 +1661,114 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-800</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
       </c>
       <c r="I23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-400</v>
       </c>
       <c r="R23" s="3">
         <v>-500</v>
       </c>
       <c r="S23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1850,14 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,61 +1865,67 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-800</v>
       </c>
       <c r="H26" s="3">
         <v>-300</v>
       </c>
       <c r="I26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-6400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-400</v>
       </c>
       <c r="R26" s="3">
         <v>-500</v>
       </c>
       <c r="S26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,61 +1933,67 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-800</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
       </c>
       <c r="I27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-6400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-400</v>
       </c>
       <c r="R27" s="3">
         <v>-500</v>
       </c>
       <c r="S27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1956,37 +2078,37 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>100</v>
+      </c>
+      <c r="J29" s="3">
         <v>900</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-100</v>
-      </c>
       <c r="K29" s="3">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="L29" s="3">
         <v>-100</v>
       </c>
       <c r="M29" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,61 +2273,67 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>400</v>
+      </c>
+      <c r="O32" s="3">
+        <v>300</v>
+      </c>
+      <c r="P32" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,61 +2341,67 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-400</v>
       </c>
       <c r="R33" s="3">
         <v>-500</v>
       </c>
       <c r="S33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2462,14 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,128 +2477,140 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-400</v>
       </c>
       <c r="R35" s="3">
         <v>-500</v>
       </c>
       <c r="S35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2659,10 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2499,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2514,25 +2688,25 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>200</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
@@ -2544,13 +2718,19 @@
         <v>200</v>
       </c>
       <c r="U41" s="3">
+        <v>200</v>
+      </c>
+      <c r="V41" s="3">
+        <v>200</v>
+      </c>
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,22 +2791,28 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2635,46 +2821,52 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
       </c>
       <c r="Q43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S43" s="3">
         <v>200</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
         <v>200</v>
       </c>
       <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
+        <v>200</v>
+      </c>
+      <c r="X43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2687,44 +2879,44 @@
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>200</v>
-      </c>
-      <c r="L44" s="3">
-        <v>300</v>
-      </c>
-      <c r="M44" s="3">
-        <v>300</v>
       </c>
       <c r="N44" s="3">
         <v>300</v>
       </c>
       <c r="O44" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="P44" s="3">
         <v>300</v>
       </c>
       <c r="Q44" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="R44" s="3">
         <v>300</v>
       </c>
       <c r="S44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T44" s="3">
         <v>300</v>
@@ -2735,25 +2927,31 @@
       <c r="V44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>300</v>
+      </c>
+      <c r="X44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2762,34 +2960,34 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -2797,19 +2995,25 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2818,49 +3022,55 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
-      </c>
-      <c r="M46" s="3">
-        <v>800</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1000</v>
       </c>
       <c r="O46" s="3">
         <v>800</v>
       </c>
       <c r="P46" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q46" s="3">
         <v>800</v>
       </c>
       <c r="R46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T46" s="3">
         <v>700</v>
       </c>
       <c r="U46" s="3">
+        <v>700</v>
+      </c>
+      <c r="V46" s="3">
+        <v>700</v>
+      </c>
+      <c r="W46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2885,14 +3095,14 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2900,11 +3110,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
@@ -2921,16 +3131,22 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
@@ -2947,29 +3163,29 @@
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>100</v>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
       </c>
       <c r="O48" s="3">
+        <v>100</v>
+      </c>
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3">
         <v>200</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>100</v>
-      </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -2983,70 +3199,82 @@
       <c r="V48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5100</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2900</v>
-      </c>
-      <c r="O49" s="3">
-        <v>500</v>
-      </c>
-      <c r="P49" s="3">
-        <v>500</v>
       </c>
       <c r="Q49" s="3">
         <v>500</v>
       </c>
       <c r="R49" s="3">
+        <v>500</v>
+      </c>
+      <c r="S49" s="3">
+        <v>500</v>
+      </c>
+      <c r="T49" s="3">
         <v>300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>300</v>
-      </c>
-      <c r="T49" s="3">
-        <v>400</v>
-      </c>
-      <c r="U49" s="3">
-        <v>400</v>
       </c>
       <c r="V49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>400</v>
+      </c>
+      <c r="X49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,19 +3403,25 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3208,31 +3448,37 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1400</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1400</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1100</v>
       </c>
       <c r="T54" s="3">
         <v>1100</v>
       </c>
       <c r="U54" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="V54" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X54" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,185 +3663,199 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="E57" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F57" s="3">
         <v>2100</v>
       </c>
       <c r="G57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F58" s="3">
         <v>2400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2300</v>
       </c>
       <c r="H58" s="3">
         <v>2200</v>
       </c>
       <c r="I58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -3589,70 +3863,82 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3687,34 +3973,40 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>100</v>
-      </c>
-      <c r="O61" s="3">
-        <v>100</v>
-      </c>
-      <c r="P61" s="3">
-        <v>200</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>300</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3745,23 +4037,23 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>2100</v>
       </c>
       <c r="R66" s="3">
         <v>2300</v>
       </c>
       <c r="S66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U66" s="3">
         <v>1800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-18100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-17900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-17600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-17200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-16400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-17000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-15800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-14900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-9900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-4300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-3300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-3600</v>
       </c>
       <c r="I76" s="3">
         <v>-4300</v>
       </c>
       <c r="J76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="L76" s="3">
         <v>-3500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-1200</v>
       </c>
       <c r="S76" s="3">
         <v>-700</v>
       </c>
       <c r="T76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +5045,87 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,61 +5133,67 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-400</v>
       </c>
       <c r="R81" s="3">
         <v>-500</v>
       </c>
       <c r="S81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,16 +5216,18 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4841,20 +5239,20 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5620,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5201,61 +5635,67 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,31 +5718,33 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5338,10 +5780,16 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,56 +5918,62 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -5524,10 +5984,16 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>400</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-100</v>
-      </c>
       <c r="S100" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>-100</v>
       </c>
       <c r="U100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6420,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5934,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -5943,10 +6447,10 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -5955,33 +6459,39 @@
         <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>LFER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,112 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -794,48 +797,51 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>600</v>
       </c>
       <c r="S8" s="3">
+        <v>600</v>
+      </c>
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
-      </c>
-      <c r="W8" s="3">
-        <v>600</v>
       </c>
       <c r="X8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -849,61 +855,64 @@
       <c r="H9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>500</v>
-      </c>
-      <c r="V9" s="3">
-        <v>400</v>
       </c>
       <c r="W9" s="3">
         <v>400</v>
       </c>
       <c r="X9" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y9" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
@@ -917,35 +926,35 @@
       <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-200</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>-100</v>
       </c>
       <c r="O10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>100</v>
-      </c>
-      <c r="R10" s="3">
-        <v>200</v>
       </c>
       <c r="S10" s="3">
         <v>200</v>
@@ -957,16 +966,19 @@
         <v>200</v>
       </c>
       <c r="V10" s="3">
+        <v>200</v>
+      </c>
+      <c r="W10" s="3">
         <v>100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,38 +1157,38 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1177,8 +1196,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,11 +1226,11 @@
         <v>300</v>
       </c>
       <c r="E15" s="3">
+        <v>300</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
@@ -1228,17 +1250,17 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,123 +1311,127 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
       </c>
       <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1200</v>
       </c>
       <c r="X17" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-600</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
@@ -1414,16 +1443,19 @@
         <v>-200</v>
       </c>
       <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-600</v>
       </c>
       <c r="X18" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-500</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-300</v>
       </c>
       <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-200</v>
       </c>
       <c r="T21" s="3">
         <v>-200</v>
       </c>
       <c r="U21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-600</v>
       </c>
       <c r="X21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1635,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>300</v>
       </c>
       <c r="U22" s="3">
         <v>300</v>
@@ -1650,78 +1689,84 @@
         <v>300</v>
       </c>
       <c r="X22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
       </c>
       <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-500</v>
       </c>
       <c r="U23" s="3">
         <v>-500</v>
       </c>
       <c r="V23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1746,17 +1791,17 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>8</v>
@@ -1764,14 +1809,14 @@
       <c r="P24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
       </c>
       <c r="H26" s="3">
         <v>-300</v>
       </c>
       <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-500</v>
       </c>
       <c r="U26" s="3">
         <v>-500</v>
       </c>
       <c r="V26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
       </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-500</v>
       </c>
       <c r="U27" s="3">
         <v>-500</v>
       </c>
       <c r="V27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,13 +2117,16 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2081,37 +2141,37 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>900</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-1600</v>
-      </c>
-      <c r="N29" s="3">
-        <v>-100</v>
       </c>
       <c r="O29" s="3">
         <v>-100</v>
       </c>
       <c r="P29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-200</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>200</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-500</v>
       </c>
       <c r="U33" s="3">
         <v>-500</v>
       </c>
       <c r="V33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-500</v>
       </c>
       <c r="U35" s="3">
         <v>-500</v>
       </c>
       <c r="V35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,23 +2746,24 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2694,22 +2780,22 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>200</v>
@@ -2724,13 +2810,16 @@
         <v>200</v>
       </c>
       <c r="W41" s="3">
+        <v>200</v>
+      </c>
+      <c r="X41" s="3">
         <v>400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,25 +2886,28 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
+      <c r="F43" s="3">
+        <v>100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2827,28 +2919,28 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
       <c r="P43" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
-      </c>
-      <c r="S43" s="3">
-        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>200</v>
@@ -2857,16 +2949,19 @@
         <v>200</v>
       </c>
       <c r="V43" s="3">
+        <v>200</v>
+      </c>
+      <c r="W43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2885,8 +2980,8 @@
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2895,13 +2990,13 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>300</v>
@@ -2910,16 +3005,16 @@
         <v>300</v>
       </c>
       <c r="Q44" s="3">
+        <v>300</v>
+      </c>
+      <c r="R44" s="3">
         <v>600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>400</v>
-      </c>
-      <c r="T44" s="3">
-        <v>300</v>
       </c>
       <c r="U44" s="3">
         <v>300</v>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2944,8 +3042,8 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -2953,8 +3051,8 @@
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2966,31 +3064,31 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3001,22 +3099,25 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3028,25 +3129,25 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>800</v>
       </c>
       <c r="R46" s="3">
         <v>800</v>
@@ -3055,7 +3156,7 @@
         <v>800</v>
       </c>
       <c r="T46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="U46" s="3">
         <v>700</v>
@@ -3064,13 +3165,16 @@
         <v>700</v>
       </c>
       <c r="W46" s="3">
+        <v>700</v>
+      </c>
+      <c r="X46" s="3">
         <v>900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3101,11 +3205,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3116,8 +3220,8 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
+      <c r="R47" s="3">
+        <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3148,8 +3255,8 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
@@ -3169,11 +3276,11 @@
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -3182,13 +3289,13 @@
         <v>100</v>
       </c>
       <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
         <v>200</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -3205,52 +3312,55 @@
       <c r="X48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E49" s="3">
         <v>4900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
       </c>
       <c r="L49" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M49" s="3">
         <v>600</v>
       </c>
       <c r="N49" s="3">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="O49" s="3">
         <v>2800</v>
       </c>
       <c r="P49" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q49" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>500</v>
       </c>
       <c r="R49" s="3">
         <v>500</v>
@@ -3259,13 +3369,13 @@
         <v>500</v>
       </c>
       <c r="T49" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="U49" s="3">
         <v>300</v>
       </c>
       <c r="V49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W49" s="3">
         <v>400</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3454,11 +3573,11 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>1400</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
@@ -3468,8 +3587,8 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
+      <c r="V52" s="3">
+        <v>0</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,23 +3667,26 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E54" s="3">
         <v>5100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -3569,37 +3694,37 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1400</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1100</v>
       </c>
       <c r="U54" s="3">
         <v>1100</v>
@@ -3608,13 +3733,16 @@
         <v>1100</v>
       </c>
       <c r="W54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X54" s="3">
         <v>1300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,10 +3804,10 @@
         <v>2300</v>
       </c>
       <c r="E57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F57" s="3">
         <v>2200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2100</v>
       </c>
       <c r="G57" s="3">
         <v>2100</v>
@@ -3686,123 +3816,129 @@
         <v>2100</v>
       </c>
       <c r="I57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1400</v>
       </c>
       <c r="L57" s="3">
         <v>1400</v>
       </c>
       <c r="M57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N57" s="3">
         <v>2000</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1800</v>
       </c>
       <c r="O57" s="3">
         <v>1800</v>
       </c>
       <c r="P57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1300</v>
       </c>
       <c r="S57" s="3">
         <v>1300</v>
       </c>
       <c r="T57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U57" s="3">
         <v>1100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
-      </c>
-      <c r="W57" s="3">
-        <v>400</v>
       </c>
       <c r="X57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2400</v>
       </c>
       <c r="G58" s="3">
         <v>2400</v>
       </c>
       <c r="H58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1700</v>
       </c>
       <c r="M58" s="3">
         <v>1700</v>
       </c>
       <c r="N58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O58" s="3">
         <v>1300</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1500</v>
       </c>
       <c r="P58" s="3">
         <v>1500</v>
       </c>
       <c r="Q58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R58" s="3">
         <v>1700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>700</v>
       </c>
       <c r="S58" s="3">
         <v>700</v>
       </c>
       <c r="T58" s="3">
+        <v>700</v>
+      </c>
+      <c r="U58" s="3">
         <v>1200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3810,55 +3946,55 @@
         <v>2300</v>
       </c>
       <c r="E59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F59" s="3">
         <v>5600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -3869,76 +4005,82 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E60" s="3">
         <v>6500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>3200</v>
       </c>
       <c r="P60" s="3">
         <v>3200</v>
       </c>
       <c r="Q60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R60" s="3">
         <v>3600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3979,20 +4121,20 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
       </c>
       <c r="R61" s="3">
+        <v>100</v>
+      </c>
+      <c r="S61" s="3">
         <v>200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>100</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4000,13 +4142,16 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>300</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4043,20 +4188,20 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>3300</v>
       </c>
       <c r="P66" s="3">
         <v>3300</v>
       </c>
       <c r="Q66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R66" s="3">
         <v>3700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>800</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-1000</v>
       </c>
       <c r="R76" s="3">
         <v>-1000</v>
       </c>
       <c r="S76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T76" s="3">
         <v>-700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-500</v>
       </c>
       <c r="U81" s="3">
         <v>-500</v>
       </c>
       <c r="V81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5227,11 +5425,11 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
+        <v>300</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -5239,11 +5437,11 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -5251,11 +5449,11 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>200</v>
       </c>
       <c r="V89" s="3">
+        <v>200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,16 +5939,17 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
@@ -5746,8 +5966,8 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5786,10 +6006,13 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,25 +6150,28 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5951,17 +6180,17 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5969,14 +6198,14 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -5990,10 +6219,13 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>200</v>
       </c>
       <c r="N100" s="3">
         <v>200</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>LFER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,190 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>600</v>
       </c>
       <c r="T8" s="3">
+        <v>600</v>
+      </c>
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>500</v>
-      </c>
-      <c r="X8" s="3">
-        <v>600</v>
       </c>
       <c r="Y8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -858,61 +865,64 @@
       <c r="I9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>500</v>
-      </c>
-      <c r="W9" s="3">
-        <v>400</v>
       </c>
       <c r="X9" s="3">
         <v>400</v>
       </c>
       <c r="Y9" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z9" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
@@ -929,35 +939,35 @@
       <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-200</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>-100</v>
       </c>
       <c r="P10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>100</v>
-      </c>
-      <c r="S10" s="3">
-        <v>200</v>
       </c>
       <c r="T10" s="3">
         <v>200</v>
@@ -969,16 +979,19 @@
         <v>200</v>
       </c>
       <c r="W10" s="3">
+        <v>200</v>
+      </c>
+      <c r="X10" s="3">
         <v>100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,38 +1180,38 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1199,8 +1219,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1217,23 +1237,26 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>300</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>300</v>
       </c>
       <c r="F15" s="3">
+        <v>300</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
@@ -1253,17 +1276,17 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,129 +1338,133 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>600</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P17" s="3">
         <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>4300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
       </c>
       <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1200</v>
       </c>
       <c r="Y17" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
@@ -1446,16 +1476,19 @@
         <v>-200</v>
       </c>
       <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X18" s="3">
         <v>-300</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-600</v>
       </c>
       <c r="Y18" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
-        <v>300</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="O20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="S20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-500</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-200</v>
       </c>
       <c r="U21" s="3">
         <v>-200</v>
       </c>
       <c r="V21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-600</v>
       </c>
       <c r="Y21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1677,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
-      </c>
-      <c r="U22" s="3">
-        <v>300</v>
       </c>
       <c r="V22" s="3">
         <v>300</v>
@@ -1692,81 +1732,87 @@
         <v>300</v>
       </c>
       <c r="Y22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-800</v>
+        <v>-1500</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-300</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
       </c>
       <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-500</v>
       </c>
       <c r="V23" s="3">
         <v>-500</v>
       </c>
       <c r="W23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1794,17 +1840,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>8</v>
@@ -1812,14 +1858,14 @@
       <c r="Q24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-800</v>
+        <v>-1500</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-300</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-500</v>
       </c>
       <c r="V26" s="3">
         <v>-500</v>
       </c>
       <c r="W26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-800</v>
+        <v>-1500</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-300</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-500</v>
       </c>
       <c r="V27" s="3">
         <v>-500</v>
       </c>
       <c r="W27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,16 +2178,19 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>-1400</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2144,37 +2205,37 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>900</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1600</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-100</v>
       </c>
       <c r="P29" s="3">
         <v>-100</v>
       </c>
       <c r="Q29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R29" s="3">
         <v>-200</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>400</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="O32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P32" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>300</v>
+      </c>
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="S32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>2200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>700</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1300</v>
-      </c>
-      <c r="S32" s="3">
-        <v>200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-800</v>
+        <v>-2900</v>
       </c>
       <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-500</v>
       </c>
       <c r="V33" s="3">
         <v>-500</v>
       </c>
       <c r="W33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-800</v>
+        <v>-2900</v>
       </c>
       <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-500</v>
       </c>
       <c r="V35" s="3">
         <v>-500</v>
       </c>
       <c r="W35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2833,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2756,17 +2843,17 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2783,22 +2870,22 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>200</v>
       </c>
       <c r="T41" s="3">
         <v>200</v>
@@ -2813,13 +2900,16 @@
         <v>200</v>
       </c>
       <c r="X41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y41" s="3">
         <v>400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2898,19 +2991,19 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
+      <c r="G43" s="3">
+        <v>100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2922,28 +3015,28 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
       </c>
       <c r="Q43" s="3">
+        <v>200</v>
+      </c>
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
-      </c>
-      <c r="T43" s="3">
-        <v>200</v>
       </c>
       <c r="U43" s="3">
         <v>200</v>
@@ -2952,36 +3045,39 @@
         <v>200</v>
       </c>
       <c r="W43" s="3">
+        <v>200</v>
+      </c>
+      <c r="X43" s="3">
         <v>100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2993,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P44" s="3">
         <v>300</v>
@@ -3008,16 +3104,16 @@
         <v>300</v>
       </c>
       <c r="R44" s="3">
+        <v>300</v>
+      </c>
+      <c r="S44" s="3">
         <v>600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>400</v>
-      </c>
-      <c r="U44" s="3">
-        <v>300</v>
       </c>
       <c r="V44" s="3">
         <v>300</v>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3045,8 +3144,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -3054,8 +3153,8 @@
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3067,31 +3166,31 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3102,25 +3201,28 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -3132,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
-      </c>
-      <c r="R46" s="3">
-        <v>800</v>
       </c>
       <c r="S46" s="3">
         <v>800</v>
@@ -3159,7 +3261,7 @@
         <v>800</v>
       </c>
       <c r="U46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="V46" s="3">
         <v>700</v>
@@ -3168,36 +3270,39 @@
         <v>700</v>
       </c>
       <c r="X46" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y46" s="3">
         <v>900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3208,11 +3313,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3223,8 +3328,8 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
+      <c r="S47" s="3">
+        <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
@@ -3244,13 +3349,16 @@
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3258,8 +3366,8 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
@@ -3279,11 +3387,11 @@
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -3292,13 +3400,13 @@
         <v>100</v>
       </c>
       <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
         <v>200</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3315,55 +3423,58 @@
       <c r="Y48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3">
         <v>4700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
       </c>
       <c r="M49" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N49" s="3">
         <v>600</v>
       </c>
       <c r="O49" s="3">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="P49" s="3">
         <v>2800</v>
       </c>
       <c r="Q49" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R49" s="3">
         <v>2900</v>
-      </c>
-      <c r="R49" s="3">
-        <v>500</v>
       </c>
       <c r="S49" s="3">
         <v>500</v>
@@ -3372,13 +3483,13 @@
         <v>500</v>
       </c>
       <c r="U49" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="V49" s="3">
         <v>300</v>
       </c>
       <c r="W49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X49" s="3">
         <v>400</v>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3576,11 +3696,11 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>1400</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
@@ -3590,8 +3710,8 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
+      <c r="W52" s="3">
+        <v>0</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>8</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,26 +3793,29 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>4700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -3697,37 +3823,37 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1400</v>
-      </c>
-      <c r="U54" s="3">
-        <v>1100</v>
       </c>
       <c r="V54" s="3">
         <v>1100</v>
@@ -3736,13 +3862,16 @@
         <v>1100</v>
       </c>
       <c r="X54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>1300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,22 +3925,23 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2300</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
         <v>2300</v>
       </c>
       <c r="F57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G57" s="3">
         <v>2200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2100</v>
       </c>
       <c r="H57" s="3">
         <v>2100</v>
@@ -3819,55 +3950,58 @@
         <v>2100</v>
       </c>
       <c r="J57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1400</v>
       </c>
       <c r="M57" s="3">
         <v>1400</v>
       </c>
       <c r="N57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O57" s="3">
         <v>2000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1800</v>
       </c>
       <c r="P57" s="3">
         <v>1800</v>
       </c>
       <c r="Q57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1300</v>
       </c>
       <c r="T57" s="3">
         <v>1300</v>
       </c>
       <c r="U57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V57" s="3">
         <v>1100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
-      </c>
-      <c r="X57" s="3">
-        <v>400</v>
       </c>
       <c r="Y57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3875,129 +4009,132 @@
         <v>900</v>
       </c>
       <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2400</v>
       </c>
       <c r="H58" s="3">
         <v>2400</v>
       </c>
       <c r="I58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1700</v>
       </c>
       <c r="N58" s="3">
         <v>1700</v>
       </c>
       <c r="O58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P58" s="3">
         <v>1300</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1500</v>
       </c>
       <c r="Q58" s="3">
         <v>1500</v>
       </c>
       <c r="R58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S58" s="3">
         <v>1700</v>
-      </c>
-      <c r="S58" s="3">
-        <v>700</v>
       </c>
       <c r="T58" s="3">
         <v>700</v>
       </c>
       <c r="U58" s="3">
+        <v>700</v>
+      </c>
+      <c r="V58" s="3">
         <v>1200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2300</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>2300</v>
       </c>
       <c r="F59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G59" s="3">
         <v>5600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4008,79 +4145,85 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>5500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3100</v>
-      </c>
-      <c r="P60" s="3">
-        <v>3200</v>
       </c>
       <c r="Q60" s="3">
         <v>3200</v>
       </c>
       <c r="R60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S60" s="3">
         <v>3600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4124,20 +4267,20 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
       </c>
       <c r="S61" s="3">
+        <v>100</v>
+      </c>
+      <c r="T61" s="3">
         <v>200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>100</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4145,13 +4288,16 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>300</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4191,20 +4337,20 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3300</v>
       </c>
       <c r="Q66" s="3">
         <v>3300</v>
       </c>
       <c r="R66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S66" s="3">
         <v>3700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>800</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-1000</v>
       </c>
       <c r="S76" s="3">
         <v>-1000</v>
       </c>
       <c r="T76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U76" s="3">
         <v>-700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-800</v>
+        <v>-2900</v>
       </c>
       <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-500</v>
       </c>
       <c r="V81" s="3">
         <v>-500</v>
       </c>
       <c r="W81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,23 +5614,24 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
-        <v>300</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -5440,11 +5639,11 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -5452,11 +5651,11 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>200</v>
       </c>
       <c r="W89" s="3">
+        <v>200</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,19 +6160,20 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -5969,8 +6190,8 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -6009,10 +6230,13 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,28 +6380,31 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -6183,17 +6413,17 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -6201,14 +6431,14 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -6222,10 +6452,13 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>200</v>
       </c>
       <c r="O100" s="3">
         <v>200</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>LFER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42704</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -807,43 +811,46 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>600</v>
       </c>
       <c r="U8" s="3">
+        <v>600</v>
+      </c>
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>500</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>600</v>
       </c>
       <c r="Z8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,56 +875,59 @@
       <c r="J9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>500</v>
-      </c>
-      <c r="X9" s="3">
-        <v>400</v>
       </c>
       <c r="Y9" s="3">
         <v>400</v>
       </c>
       <c r="Z9" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA9" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -942,35 +952,35 @@
       <c r="J10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-200</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>-100</v>
       </c>
       <c r="Q10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>100</v>
-      </c>
-      <c r="T10" s="3">
-        <v>200</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
@@ -982,16 +992,19 @@
         <v>200</v>
       </c>
       <c r="X10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y10" s="3">
         <v>100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1183,38 +1203,38 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1222,8 +1242,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1240,26 +1260,29 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>300</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
       </c>
       <c r="G15" s="3">
+        <v>300</v>
+      </c>
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
@@ -1279,17 +1302,17 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,82 +1365,86 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
       </c>
       <c r="S17" s="3">
+        <v>400</v>
+      </c>
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1200</v>
       </c>
       <c r="Z17" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,52 +1452,52 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
@@ -1479,16 +1509,19 @@
         <v>-200</v>
       </c>
       <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-600</v>
       </c>
       <c r="Z18" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,147 +1558,153 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-300</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-200</v>
       </c>
       <c r="V21" s="3">
         <v>-200</v>
       </c>
       <c r="W21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-600</v>
       </c>
       <c r="Z21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1720,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>300</v>
       </c>
       <c r="W22" s="3">
         <v>300</v>
@@ -1735,84 +1775,90 @@
         <v>300</v>
       </c>
       <c r="Z22" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
       </c>
       <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-500</v>
       </c>
       <c r="W23" s="3">
         <v>-500</v>
       </c>
       <c r="X23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1843,17 +1889,17 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>8</v>
@@ -1861,14 +1907,14 @@
       <c r="R24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
       </c>
       <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-500</v>
       </c>
       <c r="W26" s="3">
         <v>-500</v>
       </c>
       <c r="X26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
       </c>
       <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-500</v>
       </c>
       <c r="W27" s="3">
         <v>-500</v>
       </c>
       <c r="X27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,20 +2239,23 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-700</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
@@ -2208,37 +2269,37 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>900</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-1600</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-100</v>
       </c>
       <c r="Q29" s="3">
         <v>-100</v>
       </c>
       <c r="R29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S29" s="3">
         <v>-200</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,147 +2482,153 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-500</v>
       </c>
       <c r="W33" s="3">
         <v>-500</v>
       </c>
       <c r="X33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-500</v>
       </c>
       <c r="W35" s="3">
         <v>-500</v>
       </c>
       <c r="X35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42704</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,29 +2920,30 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2873,22 +2960,22 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
-      </c>
-      <c r="T41" s="3">
-        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>200</v>
@@ -2903,13 +2990,16 @@
         <v>200</v>
       </c>
       <c r="Y41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z41" s="3">
         <v>400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2994,19 +3087,19 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
+      <c r="H43" s="3">
+        <v>100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -3018,28 +3111,28 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
       </c>
       <c r="R43" s="3">
+        <v>200</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
-      </c>
-      <c r="U43" s="3">
-        <v>200</v>
       </c>
       <c r="V43" s="3">
         <v>200</v>
@@ -3048,16 +3141,19 @@
         <v>200</v>
       </c>
       <c r="X43" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3092,13 +3188,13 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="3">
         <v>300</v>
@@ -3107,16 +3203,16 @@
         <v>300</v>
       </c>
       <c r="S44" s="3">
+        <v>300</v>
+      </c>
+      <c r="T44" s="3">
         <v>600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>400</v>
-      </c>
-      <c r="V44" s="3">
-        <v>300</v>
       </c>
       <c r="W44" s="3">
         <v>300</v>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3147,8 +3246,8 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -3156,8 +3255,8 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3169,31 +3268,31 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3213,19 +3315,19 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -3237,25 +3339,25 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1000</v>
-      </c>
-      <c r="S46" s="3">
-        <v>800</v>
       </c>
       <c r="T46" s="3">
         <v>800</v>
@@ -3264,7 +3366,7 @@
         <v>800</v>
       </c>
       <c r="V46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="W46" s="3">
         <v>700</v>
@@ -3273,22 +3375,25 @@
         <v>700</v>
       </c>
       <c r="Y46" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z46" s="3">
         <v>900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
         <v>300</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3304,8 +3409,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3316,11 +3421,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3331,8 +3436,8 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
+      <c r="T47" s="3">
+        <v>0</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
@@ -3352,16 +3457,19 @@
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -3369,8 +3477,8 @@
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
@@ -3390,11 +3498,11 @@
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -3403,13 +3511,13 @@
         <v>100</v>
       </c>
       <c r="S48" s="3">
+        <v>100</v>
+      </c>
+      <c r="T48" s="3">
         <v>200</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
@@ -3426,58 +3534,61 @@
       <c r="Z48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3">
         <v>4700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>200</v>
       </c>
       <c r="N49" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="O49" s="3">
         <v>600</v>
       </c>
       <c r="P49" s="3">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="Q49" s="3">
         <v>2800</v>
       </c>
       <c r="R49" s="3">
+        <v>2800</v>
+      </c>
+      <c r="S49" s="3">
         <v>2900</v>
-      </c>
-      <c r="S49" s="3">
-        <v>500</v>
       </c>
       <c r="T49" s="3">
         <v>500</v>
@@ -3486,13 +3597,13 @@
         <v>500</v>
       </c>
       <c r="V49" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="W49" s="3">
         <v>300</v>
       </c>
       <c r="X49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y49" s="3">
         <v>400</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3699,11 +3819,11 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>1400</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
@@ -3713,8 +3833,8 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
+      <c r="X52" s="3">
+        <v>0</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>8</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,29 +3919,32 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -3826,37 +3952,37 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1400</v>
-      </c>
-      <c r="V54" s="3">
-        <v>1100</v>
       </c>
       <c r="W54" s="3">
         <v>1100</v>
@@ -3865,13 +3991,16 @@
         <v>1100</v>
       </c>
       <c r="Y54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z54" s="3">
         <v>1300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,25 +4056,26 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2300</v>
       </c>
       <c r="F57" s="3">
         <v>2300</v>
       </c>
       <c r="G57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H57" s="3">
         <v>2200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2100</v>
       </c>
       <c r="I57" s="3">
         <v>2100</v>
@@ -3953,191 +4084,197 @@
         <v>2100</v>
       </c>
       <c r="K57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1400</v>
       </c>
       <c r="N57" s="3">
         <v>1400</v>
       </c>
       <c r="O57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P57" s="3">
         <v>2000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1800</v>
       </c>
       <c r="Q57" s="3">
         <v>1800</v>
       </c>
       <c r="R57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1300</v>
       </c>
       <c r="U57" s="3">
         <v>1300</v>
       </c>
       <c r="V57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W57" s="3">
         <v>1100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>500</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>400</v>
       </c>
       <c r="Z57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>900</v>
       </c>
       <c r="F58" s="3">
+        <v>900</v>
+      </c>
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2400</v>
       </c>
       <c r="I58" s="3">
         <v>2400</v>
       </c>
       <c r="J58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1700</v>
       </c>
       <c r="O58" s="3">
         <v>1700</v>
       </c>
       <c r="P58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1500</v>
       </c>
       <c r="R58" s="3">
         <v>1500</v>
       </c>
       <c r="S58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T58" s="3">
         <v>1700</v>
-      </c>
-      <c r="T58" s="3">
-        <v>700</v>
       </c>
       <c r="U58" s="3">
         <v>700</v>
       </c>
       <c r="V58" s="3">
+        <v>700</v>
+      </c>
+      <c r="W58" s="3">
         <v>1200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2300</v>
       </c>
       <c r="F59" s="3">
         <v>2300</v>
       </c>
       <c r="G59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H59" s="3">
         <v>5600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
       </c>
       <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4148,82 +4285,88 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>3200</v>
       </c>
       <c r="R60" s="3">
         <v>3200</v>
       </c>
       <c r="S60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T60" s="3">
         <v>3600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4270,20 +4413,20 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>100</v>
       </c>
       <c r="T61" s="3">
+        <v>100</v>
+      </c>
+      <c r="U61" s="3">
         <v>200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>100</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4291,13 +4434,16 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>300</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4340,20 +4486,20 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3300</v>
       </c>
       <c r="R66" s="3">
         <v>3300</v>
       </c>
       <c r="S66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T66" s="3">
         <v>3700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>800</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-1000</v>
       </c>
       <c r="T76" s="3">
         <v>-1000</v>
       </c>
       <c r="U76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V76" s="3">
         <v>-700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42704</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-500</v>
       </c>
       <c r="W81" s="3">
         <v>-500</v>
       </c>
       <c r="X81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,26 +5813,27 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -5642,11 +5841,11 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -5654,11 +5853,11 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>200</v>
       </c>
       <c r="X89" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,22 +6381,23 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
@@ -6193,8 +6414,8 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6233,10 +6454,13 @@
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,31 +6610,34 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -6416,17 +6646,17 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -6434,14 +6664,14 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -6455,10 +6685,13 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
-      </c>
-      <c r="E100" s="3">
-        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>200</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6941,66 +7193,69 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>LFER</t>
   </si>
@@ -6387,11 +6387,11 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -6399,14 +6399,14 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
